--- a/14OCT23 tylenol/dosage data.xlsx
+++ b/14OCT23 tylenol/dosage data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="300" windowWidth="25600" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +167,24 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -190,14 +208,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,9 +560,10 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -561,8 +584,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="str">
+        <f>"&lt;img data-dose ="&amp;B2&amp;" src="&amp;C2&amp;"&gt;"</f>
+        <v>&lt;img data-dose =2000 src=alkaseltzer.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -572,8 +599,12 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D21" si="0">"&lt;img data-dose ="&amp;B3&amp;" src="&amp;C3&amp;"&gt;"</f>
+        <v>&lt;img data-dose =4000 src=anacin.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -583,8 +614,12 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =800 src=childrenstylenol.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -594,8 +629,12 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=coricidin.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -605,8 +644,12 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =1300 src=dayquil.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -616,8 +659,12 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =800 src=dimetapp.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -627,8 +674,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =2000 src=excedrin.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -638,8 +689,12 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=hydrocodone.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -649,8 +704,12 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =2600 src=nyquil.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -660,8 +719,12 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=oxycodone.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -671,8 +734,12 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =800 src=panadol.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -682,8 +749,12 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=percoset.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -693,8 +764,12 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3840 src=robitussin.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -704,8 +779,12 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3250 src=sudafed.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -715,8 +794,12 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=theraflu.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -726,8 +809,12 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3000 src=tylenolextrastrngth.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -737,8 +824,12 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =4000 src=tylenolwcodeine.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -748,8 +839,12 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =2600 src=ultracet.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -759,8 +854,12 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3960 src=vicodin.jpg&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -770,9 +869,14 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;img data-dose =3900 src=zicam.jpg&gt;</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
